--- a/Luban/Config/Datas/__beans__.xlsx
+++ b/Luban/Config/Datas/__beans__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\Roots\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC23C00C-B119-47B7-938A-CB908B41BE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B17E67-67D4-4CA3-9069-5478D936DF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="2985" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -82,15 +82,27 @@
     <t>注释</t>
   </si>
   <si>
-    <t>Effect</t>
+    <t>EventEffect</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>EffectName</t>
+    <t>,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
+    <t>EffectType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Para1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Para2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -471,18 +483,18 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="4" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="4" width="29.875" customWidth="1"/>
     <col min="5" max="7" width="15" customWidth="1"/>
-    <col min="8" max="10" width="13.44140625" customWidth="1"/>
+    <col min="8" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +524,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -561,113 +573,124 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="E13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="E20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="E30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
